--- a/medicine/Enfance/Leon_Garfield/Leon_Garfield.xlsx
+++ b/medicine/Enfance/Leon_Garfield/Leon_Garfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leon Garfield, né le 14 juillet 1921 à Brighton dans le Sussex et mort le 2 juin 1996 à l'âge de 74 ans, est un écrivain britannique, connu pour ses romans historiques pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Écrivain britannique de fiction, Leon Garfield est surtout connu pour ses romans historiques pour les enfants, même s'il a également écrit pour les adultes. Il et l’auteur de plus de trente livres, et a scénarisé Shakespeare : Les Contes animés pour la télévision.
 Garfield a étudié au gymnase Brighton (1932-1938) et a continué à étudier l'art à Regent Street Polytechnic, mais ses études sont interrompues d'abord par manque d'argent, puis par le déclenchement de la Seconde Guerre mondiale. Il épouse Lena Leah Davies en avril 1941, à la synagogue Golders Green, mais ils se séparent après seulement quelques mois. Pour son service militaire, il rejoint la British Army Medical Corps. Lors de son affectation en Belgique, il rencontre Vivien Alcock, une conductrice d'ambulance, qui allait devenir sa seconde épouse (en 1948) et une auteur pour enfants bien connue. Elle aura également une grande influence sur l'écriture de Garfield, en lui donnant des suggestions pour ses livres, y compris l'idée originale de Smith. Après la guerre, Garfield travaille comme technicien de laboratoire de biochimie à l'hôpital Whittington à Islington et écrit pendant son temps libre jusque dans les années 1960, où il obtient un succès suffisant pour écrire à plein temps. En 1964, le couple adopte une petite fille appelée Jane, en hommage à Jane Austen, un des écrivains préférés de ses deux parents.
@@ -548,7 +562,9 @@
           <t>Thèmes, influences, style</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les romans pour enfants de Garfield ont un cadre historique. Dans les premiers romans il s'agit la plupart du temps la fin du XVIIIe siècle, et à partir de John Diamond, c'est le XIXe siècle. Mais ce ne sont pas des romans sur les événements historiques - qui sont rarement représentés - ou sur les conditions sociales, qui ne fournissent que le point de départ pour les histoires personnelles des personnages. Dans les quelques romans où Garfield décrit des événements réels, il écrit du point de vue limité et subjectif de ses personnages.
 Les livres historiques doivent beaucoup à Dickens ainsi qu'à Stevenson, dont le roman L'Île au trésor a clairement servi de modèle pour Jack Holborn, avec ses alliances changeantes entre les personnages et les manipulations dans la poursuite d'un trésor. Garfield admet également Le Maître de Ballantrae comme source d'inspiration pour le livre. Au-delà de ces inspirations spécifiques, Garfield partage le penchant de Stevenson pour la liaison entre un héros relativement conservateur et une personnalité plus énergique, extérieure à la moralité conventionnelle. Une autre forme graphique récurrente (plus évidente dans Smith et La Rose de Décembre), celle dans laquelle un paria est intégré à une famille qui le soutient, doit plus à Dickens. Garfield partage aussi avec Dickens une forte préférence pour un milieu urbain, en général Londres.
@@ -581,7 +597,9 @@
           <t>Romans parus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jack Holborn (Jack Holborn), 1964
 L'Homme qui sortait du brouillard (Devil-in-the-Fog), 1966
@@ -635,8 +653,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cinéma et télévision
-Beaucoup de livres de Garfield ont été adaptés au cinéma ou à la télévision : 
+          <t>Cinéma et télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Beaucoup de livres de Garfield ont été adaptés au cinéma ou à la télévision : 
 1968 : Devil-in-the Fog (L'Homme qui sortait du brouillard), série télévisée britannique en 6 épisodes ;
 1970 : Smith, série télévisée britannique en 7 épisodes ;
 1979 : The Strange Affair of Adelaide Harris (L’Étrange Affaire d'Adélaïde Harris), série britannique en 6 épisodes réalisée par la BBC ;
